--- a/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832273D4-8EF8-4BC8-9B60-C1D8CD05E49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77068488-3015-4CC0-AF10-3C0EE4122979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{988392AE-E353-4814-8E30-B1C791DD9E5F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8DF01E64-80E9-4403-8422-96900F717CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,58 +67,58 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
     <t>56,93%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>mas de 50</t>
   </si>
   <si>
     <t>Capitales</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CA0C0D-E1E1-44E0-91BA-BD9153944CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E21107-DCC1-4EDD-A0E5-8BABB9260708}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -696,98 +696,86 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -796,54 +784,48 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -855,26 +837,26 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -883,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -917,13 +899,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -966,13 +948,13 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -992,7 +974,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1004,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1019,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1034,25 +1016,25 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1064,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>791</v>
+        <v>1252</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1491</v>
+        <v>1845</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1103,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1115,10 +1097,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>791</v>
+        <v>1252</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1130,10 +1112,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1491</v>
+        <v>1845</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1155,86 +1137,94 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1367</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1367</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,43 +1233,47 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1367</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1367</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,26 +1290,28 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1324,59 +1320,61 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1367</v>
+        <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>791</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1367</v>
+        <v>1491</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1388,10 +1386,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1367</v>
+        <v>700</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1403,23 +1401,25 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>791</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>1367</v>
+        <v>1491</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
@@ -1460,25 +1460,25 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>28</v>
@@ -1487,7 +1487,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD872E81-ED7C-4E64-AB19-FAC91E2ABD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FA1AE4-19EE-4C45-B22F-5737EE9069DD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1726,92 +1726,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,48 +1816,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1875,84 +1863,84 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,44 +1953,44 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2010,98 +1998,94 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>798</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1331</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>819</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1331</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2879</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,25 +2094,23 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1617</v>
+        <v>1331</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2140,10 +2122,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>3677</v>
+        <v>1331</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2165,86 +2147,94 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>607</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>607</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,43 +2243,47 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>607</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>607</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,90 +2300,94 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>798</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>607</v>
+        <v>2060</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>819</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>607</v>
+        <v>2879</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>607</v>
+        <v>2060</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2413,23 +2411,25 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1617</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>607</v>
+        <v>3677</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>38</v>
@@ -2473,7 +2473,7 @@
         <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>40</v>
@@ -2488,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>42</v>
@@ -2497,7 +2497,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -2614,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB041292-AA1E-4275-9F68-E2997AC1C6BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AA090-294D-4799-8509-BF27EE387155}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,92 +2736,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,48 +2826,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2885,84 +2873,84 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,44 +2963,44 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3020,30 +3008,30 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3052,53 +3040,53 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>646</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>617</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -3116,38 +3104,38 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>646</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>617</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3169,86 +3157,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1214</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>524</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1738</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,43 +3257,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1214</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>524</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1738</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,91 +3316,87 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1214</v>
+        <v>646</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
-        <v>524</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
       <c r="N17" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3406,10 +3408,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1214</v>
+        <v>646</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3421,25 +3423,23 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="7">
-        <v>524</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3</v>
-      </c>
       <c r="N18" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3465,40 +3465,40 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>27</v>
@@ -3507,7 +3507,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -3519,7 +3519,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3534,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77068488-3015-4CC0-AF10-3C0EE4122979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA302AE-3989-4AA2-B6B7-B6F6353BE515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8DF01E64-80E9-4403-8422-96900F717CFE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36211962-0AA0-4540-9464-149D8D55B718}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="50">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -70,18 +70,27 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -91,51 +100,54 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
     <t>49,38%</t>
   </si>
   <si>
@@ -145,13 +157,19 @@
     <t>81,56%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -166,22 +184,7 @@
     <t>14,22%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>54,71%</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2015 (Tasa respuesta: 0,24%)</t>
@@ -195,7 +198,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,39 +294,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -375,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -486,13 +489,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -501,6 +497,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -565,19 +568,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E21107-DCC1-4EDD-A0E5-8BABB9260708}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4B7AD1-804A-41CC-9B9C-0BBD83928F1D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -831,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -859,10 +882,10 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -880,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -908,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -935,13 +958,13 @@
         <v>553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -963,13 +986,13 @@
         <v>553</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -980,10 +1003,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -995,34 +1018,34 @@
         <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1252</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1845</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1031,10 +1054,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1046,34 +1069,34 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1252</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1845</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1088,13 +1111,13 @@
         <v>593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1103,13 +1126,13 @@
         <v>1252</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1118,13 +1141,13 @@
         <v>1845</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1135,19 +1158,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1163,19 +1186,19 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,19 +1207,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1212,19 +1235,19 @@
         <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,13 +1262,13 @@
         <v>1367</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1267,13 +1290,13 @@
         <v>1367</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1284,10 +1307,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -1299,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
@@ -1314,19 +1337,19 @@
         <v>16</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1491</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1335,10 +1358,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1350,10 +1373,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1365,19 +1388,19 @@
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1491</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,13 +1415,13 @@
         <v>700</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1407,13 +1430,13 @@
         <v>791</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1422,13 +1445,13 @@
         <v>1491</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,49 +1462,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>3213</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>5256</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,49 +1513,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3213</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>5256</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,13 +1570,13 @@
         <v>3213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1562,13 +1585,13 @@
         <v>2043</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1577,13 +1600,18 @@
         <v>5256</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +1632,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FA1AE4-19EE-4C45-B22F-5737EE9069DD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B9E64-3343-4A0A-A0B8-3249B5C4A2AA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1621,7 +1649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2009,34 +2037,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,34 +2086,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2141,13 @@
         <v>1331</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2128,13 +2156,13 @@
         <v>1331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,10 +2173,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -2173,10 +2201,10 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
@@ -2194,10 +2222,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -2222,10 +2250,10 @@
         <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -2249,13 +2277,13 @@
         <v>607</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2277,13 +2305,13 @@
         <v>607</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,49 +2322,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>798</v>
+        <v>2879</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,49 +2373,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>798</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2879</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2430,13 @@
         <v>2060</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2417,13 +2445,13 @@
         <v>1617</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -2432,13 +2460,13 @@
         <v>3677</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,49 +2477,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>798</v>
+        <v>2149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>798</v>
+        <v>4816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,49 +2528,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>2149</v>
+        <v>798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>798</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="7">
-        <v>7</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4816</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2585,13 @@
         <v>2667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2572,13 +2600,13 @@
         <v>2947</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -2587,13 +2615,18 @@
         <v>5614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2614,8 +2647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AA090-294D-4799-8509-BF27EE387155}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C60CBF9-638B-48A8-BB35-FB8B3347A924}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2631,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3019,10 +3052,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
@@ -3034,10 +3067,10 @@
         <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
@@ -3068,10 +3101,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -3083,10 +3116,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -3123,13 +3156,13 @@
         <v>617</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3138,13 +3171,13 @@
         <v>617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,25 +3188,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -3185,19 +3218,19 @@
         <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1738</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,25 +3239,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3236,19 +3269,19 @@
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1738</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3296,13 @@
         <v>1214</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3278,13 +3311,13 @@
         <v>524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3293,13 +3326,13 @@
         <v>1738</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,10 +3343,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -3338,10 +3371,10 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>14</v>
@@ -3359,10 +3392,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -3387,10 +3420,10 @@
         <v>11</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -3414,13 +3447,13 @@
         <v>646</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3442,13 +3475,13 @@
         <v>646</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,49 +3543,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1859</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3600,13 @@
         <v>1859</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3582,13 +3615,13 @@
         <v>1141</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -3597,13 +3630,18 @@
         <v>3000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA302AE-3989-4AA2-B6B7-B6F6353BE515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8EDCFC-500B-48C0-8A5E-B5B103FD18D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36211962-0AA0-4540-9464-149D8D55B718}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82B443E3-E749-402F-A4FF-E94159BF38F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="48">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,7 +79,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -100,7 +100,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -115,7 +115,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -145,7 +145,7 @@
     <t>78,29%</t>
   </si>
   <si>
-    <t>18,44%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>49,38%</t>
@@ -154,7 +154,7 @@
     <t>21,71%</t>
   </si>
   <si>
-    <t>81,56%</t>
+    <t>82,13%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -163,13 +163,10 @@
     <t>72,92%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>45,29%</t>
+    <t>34,5%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -178,16 +175,13 @@
     <t>27,08%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2015 (Tasa respuesta: 0,24%)</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2016 (Tasa respuesta: 0,24%)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4B7AD1-804A-41CC-9B9C-0BBD83928F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45865722-247A-4C4D-BFFF-54B05A2196F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B9E64-3343-4A0A-A0B8-3249B5C4A2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85CD9E-BD6A-4535-802C-832FF913A69F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2501,7 +2495,7 @@
         <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -2513,10 +2507,10 @@
         <v>4816</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -2540,7 +2534,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2549,13 +2543,13 @@
         <v>798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2564,13 +2558,13 @@
         <v>798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C60CBF9-638B-48A8-BB35-FB8B3347A924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BE0CE-8956-4618-B855-B468ECCB3B79}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">

--- a/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8EDCFC-500B-48C0-8A5E-B5B103FD18D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7629F161-4552-4F89-9B75-1858CB0CEF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82B443E3-E749-402F-A4FF-E94159BF38F2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{DFEA90AC-E3B6-495E-AC57-890AF1ABEB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="49">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,21 +76,18 @@
     <t>—%</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -115,7 +112,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -145,7 +142,7 @@
     <t>78,29%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>18,44%</t>
   </si>
   <si>
     <t>49,38%</t>
@@ -154,31 +151,37 @@
     <t>21,71%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>34,5%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>65,5%</t>
+    <t>60,45%</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2016 (Tasa respuesta: 0,24%)</t>
@@ -593,8 +596,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45865722-247A-4C4D-BFFF-54B05A2196F8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B21BB3-A6C1-451D-A2BD-8396BB171406}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,36 +727,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>553</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>553</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -771,28 +778,32 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -814,87 +825,93 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>553</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>553</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>553</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>593</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>553</v>
+        <v>1845</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -903,27 +920,29 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
@@ -931,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -946,151 +965,149 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1252</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>553</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>593</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>553</v>
+        <v>1845</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1252</v>
+        <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1845</v>
+        <v>1367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1099,49 +1116,47 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1252</v>
+        <v>1367</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1845</v>
+        <v>1367</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1152,53 +1167,55 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1367</v>
+        <v>791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>700</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1367</v>
+        <v>1491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1207,26 +1224,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1235,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,106 +1269,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>1367</v>
+        <v>791</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>700</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>1367</v>
+        <v>1491</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>2043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>791</v>
+        <v>3213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>1491</v>
+        <v>5256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1358,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1373,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1388,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,217 +1424,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>700</v>
+        <v>2043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>791</v>
+        <v>3213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>1491</v>
+        <v>5256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3213</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5256</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5256</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1626,8 +1491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85CD9E-BD6A-4535-802C-832FF913A69F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6CB3EE-A456-44A4-9365-9B32948D159A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1643,7 +1508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1786,7 +1651,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1875,23 +1740,25 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1331</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1907,36 +1774,40 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1331</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1954,15 +1825,17 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,17 +1844,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1331</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1997,22 +1872,24 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1331</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2031,40 +1908,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1331</v>
+        <v>607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1331</v>
+        <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2086,14 +1963,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -2101,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,34 +2006,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1331</v>
+        <v>607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1331</v>
+        <v>607</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,93 +2047,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>607</v>
+        <v>819</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2060</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>607</v>
+        <v>2879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,52 +2146,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>607</v>
+        <v>1617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2060</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>607</v>
+        <v>3677</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2319,82 +2202,82 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2060</v>
+        <v>2149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>819</v>
+        <v>2667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>2879</v>
+        <v>4816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2403,13 +2286,13 @@
         <v>798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,217 +2301,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2060</v>
+        <v>2947</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>1617</v>
+        <v>2667</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>3677</v>
+        <v>5614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2667</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2149</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4816</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>798</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>798</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2667</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2947</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5614</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
+      <c r="A19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2641,8 +2368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BE0CE-8956-4618-B855-B468ECCB3B79}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6237DC66-B45C-4AD0-A182-EC099F1A907F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2658,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2801,7 +2528,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2890,23 +2617,25 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>617</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2922,36 +2651,40 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>617</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2969,15 +2702,17 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,17 +2721,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>617</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3012,87 +2749,93 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>617</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>524</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>617</v>
+        <v>1214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>617</v>
+        <v>1738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3101,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3116,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,47 +2874,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>524</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>617</v>
+        <v>1214</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>617</v>
+        <v>1738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,100 +2927,96 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,106 +3025,106 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>524</v>
+        <v>646</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>646</v>
+        <v>1141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1859</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>646</v>
+        <v>3000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3392,26 +3133,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3420,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,215 +3178,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>646</v>
+        <v>1141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1859</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>646</v>
+        <v>3000</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1859</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3000</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1859</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3000</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
+      <c r="A19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
